--- a/5_Profiling/Termometre_cat.xlsx
+++ b/5_Profiling/Termometre_cat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\UPC\GIA\Q3\MEstadistica\spotify\PMAAD\4_Clustering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\UPC\GIA\Q3\MEstadistica\spotify\PMAAD\5_Profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091ED929-640F-4B6F-B53D-2FB06F416384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D664E3-C648-414F-AE0E-0FD129FFF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{2CE78E48-E006-4825-AE88-851FB6B1AB14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>album_type</t>
   </si>
@@ -50,9 +50,6 @@
     <t>compilation</t>
   </si>
   <si>
-    <t>artist_num</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>major_mode</t>
   </si>
   <si>
-    <t>time_signature</t>
-  </si>
-  <si>
     <t>rank_group</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>20-30</t>
   </si>
   <si>
-    <t>30-40</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -107,15 +98,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>non-binary</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>is_group</t>
   </si>
   <si>
@@ -125,16 +107,19 @@
     <t>green_vect</t>
   </si>
   <si>
-    <t>FIN_LINEA</t>
-  </si>
-  <si>
-    <t>3 4 5 6 7</t>
-  </si>
-  <si>
     <t>TRUE_val</t>
   </si>
   <si>
     <t>FALSE_val</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>mixed non-binary na</t>
+  </si>
+  <si>
+    <t>31-40</t>
   </si>
 </sst>
 </file>
@@ -150,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,19 +144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFAAA86"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,20 +179,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAAA86"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -510,243 +507,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42228ED5-CE5E-439C-8750-81E715FE4C6B}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="3" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5_Profiling/Termometre_cat.xlsx
+++ b/5_Profiling/Termometre_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barre\Documents\UPC\GIA\Q3\MEstadistica\spotify\PMAAD\5_Profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D664E3-C648-414F-AE0E-0FD129FFF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FE4135-8AA2-474C-A041-7C8EF3155714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{2CE78E48-E006-4825-AE88-851FB6B1AB14}"/>
   </bookViews>
@@ -126,8 +126,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -187,7 +195,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,29 +521,29 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -546,7 +557,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -558,7 +569,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -570,7 +581,7 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -582,7 +593,7 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -594,7 +605,7 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -606,7 +617,7 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -618,7 +629,7 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -630,7 +641,7 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -642,7 +653,7 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -654,7 +665,7 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -666,7 +677,7 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -680,7 +691,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -694,7 +705,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -707,5 +718,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>